--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT-Digital-Systems-Project\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B115CA70-A9FD-4B4C-A987-A300ABC2DD62}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="206">
   <si>
     <t>Location</t>
   </si>
@@ -760,6 +760,36 @@
   <si>
     <t>Completed 80% of Workout History Screen
 Implemented Update Functionality</t>
+  </si>
+  <si>
+    <t>11:30-03:00</t>
+  </si>
+  <si>
+    <t>08:30-12:30</t>
+  </si>
+  <si>
+    <t>Fixed Github Problem
+Implemented Delete Exercise Log Functionality
+Completed 40%  Exercise Log Screen</t>
+  </si>
+  <si>
+    <t>Fix Github problem (Long Paths &amp; Size Limiter)
+Start Exercise Log Screen
+Implement Delete Exercise Log Functionality</t>
+  </si>
+  <si>
+    <t>Complete Exercise Log Screen
+Implement Update Exercise Log Functionality</t>
+  </si>
+  <si>
+    <t>Implemented Exercise Log Screen
+Implemented Update Exercise Log Functionality</t>
+  </si>
+  <si>
+    <t>22:00-01:30</t>
+  </si>
+  <si>
+    <t>13:30-14:10</t>
   </si>
 </sst>
 </file>
@@ -837,7 +867,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -919,6 +949,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -957,6 +990,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1224,8 +1261,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A53" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F65" sqref="F65"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G69" sqref="G69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2830,7 +2867,7 @@
         <v>191</v>
       </c>
       <c r="G62" s="24" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H62" s="9" t="s">
         <v>193</v>
@@ -2856,7 +2893,7 @@
         <v>192</v>
       </c>
       <c r="G63" s="24" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H63" s="15" t="s">
         <v>195</v>
@@ -2882,7 +2919,7 @@
         <v>194</v>
       </c>
       <c r="G64" s="24" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H64" s="15" t="s">
         <v>197</v>
@@ -2890,9 +2927,11 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="16">
-        <v>45337</v>
-      </c>
-      <c r="B65" s="12"/>
+        <v>45342</v>
+      </c>
+      <c r="B65" s="12" t="s">
+        <v>198</v>
+      </c>
       <c r="C65" s="12" t="s">
         <v>15</v>
       </c>
@@ -2902,60 +2941,128 @@
       <c r="E65" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F65" s="19"/>
+      <c r="F65" s="19" t="s">
+        <v>191</v>
+      </c>
       <c r="G65" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H65" s="9"/>
+    </row>
+    <row r="66" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A66" s="16">
+        <v>45343</v>
+      </c>
+      <c r="B66" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>201</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="15" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A67" s="16">
+        <v>45344</v>
+      </c>
+      <c r="B67" s="12" t="s">
+        <v>204</v>
+      </c>
+      <c r="C67" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D67" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E67" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F67" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A68" s="16">
+        <v>45345</v>
+      </c>
+      <c r="B68" s="29" t="s">
+        <v>205</v>
+      </c>
+      <c r="C68" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D68" s="17" t="s">
+        <v>17</v>
+      </c>
+      <c r="E68" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F68" s="9" t="s">
+        <v>183</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H68" s="9"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A69" s="16">
+        <v>45346</v>
+      </c>
+      <c r="B69" s="12"/>
+      <c r="C69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="19"/>
+      <c r="G69" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H65" s="9"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A66" s="16"/>
-      <c r="B66" s="12"/>
-      <c r="C66" s="12"/>
-      <c r="D66" s="12"/>
-      <c r="E66" s="12"/>
-      <c r="F66" s="19"/>
-      <c r="G66" s="24"/>
-      <c r="H66" s="9"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A67" s="16"/>
-      <c r="B67" s="12"/>
-      <c r="C67" s="12"/>
-      <c r="D67" s="12"/>
-      <c r="E67" s="12"/>
-      <c r="F67" s="19"/>
-      <c r="G67" s="24"/>
-      <c r="H67" s="9"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A68" s="16"/>
-      <c r="B68" s="12"/>
-      <c r="C68" s="12"/>
-      <c r="D68" s="12"/>
-      <c r="E68" s="12"/>
-      <c r="F68" s="19"/>
-      <c r="G68" s="24"/>
-      <c r="H68" s="9"/>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A69" s="16"/>
-      <c r="B69" s="12"/>
-      <c r="C69" s="12"/>
-      <c r="D69" s="12"/>
-      <c r="E69" s="12"/>
-      <c r="F69" s="19"/>
-      <c r="G69" s="24"/>
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
+      <c r="A70" s="16">
+        <v>45347</v>
+      </c>
       <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
+      <c r="C70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F70" s="19"/>
-      <c r="G70" s="24"/>
+      <c r="G70" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="47" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B115CA70-A9FD-4B4C-A987-A300ABC2DD62}"/>
+  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6102E03F-5678-4DF8-B601-3C20E159B910}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="206">
   <si>
     <t>Location</t>
   </si>
@@ -1259,10 +1259,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H129"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G69" sqref="G69"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F69" sqref="F69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3027,7 +3027,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
-        <v>45346</v>
+        <v>45347</v>
       </c>
       <c r="B69" s="12"/>
       <c r="C69" s="12" t="s">
@@ -3046,23 +3046,13 @@
       <c r="H69" s="9"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A70" s="16">
-        <v>45347</v>
-      </c>
+      <c r="A70" s="16"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D70" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E70" s="12" t="s">
-        <v>8</v>
-      </c>
+      <c r="C70" s="12"/>
+      <c r="D70" s="12"/>
+      <c r="E70" s="12"/>
       <c r="F70" s="19"/>
-      <c r="G70" s="24" t="s">
-        <v>63</v>
-      </c>
+      <c r="G70" s="24"/>
       <c r="H70" s="9"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -3075,35 +3065,33 @@
       <c r="G71" s="24"/>
       <c r="H71" s="9"/>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="12"/>
-      <c r="C72" s="12"/>
-      <c r="D72" s="12"/>
-      <c r="E72" s="12"/>
-      <c r="F72" s="19"/>
-      <c r="G72" s="24"/>
-      <c r="H72" s="9"/>
-    </row>
-    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D73" s="5" t="s">
+      <c r="C72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E73" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F73" s="15" t="s">
+      <c r="E72" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G73" s="24" t="s">
+      <c r="G72" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H73" s="15"/>
+      <c r="H72" s="15"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A73" s="21"/>
+      <c r="B73" s="21"/>
+      <c r="C73" s="21"/>
+      <c r="D73" s="21"/>
+      <c r="E73" s="21"/>
+      <c r="H73" s="10"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="21"/>
@@ -3114,11 +3102,6 @@
       <c r="H74" s="10"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="21"/>
-      <c r="B75" s="21"/>
-      <c r="C75" s="21"/>
-      <c r="D75" s="21"/>
-      <c r="E75" s="21"/>
       <c r="H75" s="10"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -3279,9 +3262,6 @@
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H128" s="10"/>
-    </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H129" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="48" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6102E03F-5678-4DF8-B601-3C20E159B910}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC1B55D-FE5B-4DC9-9E66-1F3434F4F245}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="476" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="210">
   <si>
     <t>Location</t>
   </si>
@@ -790,6 +790,24 @@
   </si>
   <si>
     <t>13:30-14:10</t>
+  </si>
+  <si>
+    <t>20:00-00:00</t>
+  </si>
+  <si>
+    <t>Create Allocate Workout Screen
+Implement Delete Workout Functionality
+Implement Update Workout Functionality</t>
+  </si>
+  <si>
+    <t>Created Allocate Workout Screen
+Implemented Delete Workout Functionality
+Implemented Update Workout Functionality</t>
+  </si>
+  <si>
+    <t>Complete Allocate Workout Screen
+Implement Allocate Workout Functionality
+Implement Create Workout Functionality</t>
   </si>
 </sst>
 </file>
@@ -1259,10 +1277,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H128"/>
+  <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F69" sqref="F69"/>
+    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="F71" sqref="F71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3025,11 +3043,13 @@
       </c>
       <c r="H68" s="9"/>
     </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A69" s="16">
-        <v>45347</v>
-      </c>
-      <c r="B69" s="12"/>
+        <v>45348</v>
+      </c>
+      <c r="B69" s="12" t="s">
+        <v>206</v>
+      </c>
       <c r="C69" s="12" t="s">
         <v>15</v>
       </c>
@@ -3039,84 +3059,156 @@
       <c r="E69" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F69" s="19"/>
+      <c r="F69" s="14" t="s">
+        <v>207</v>
+      </c>
       <c r="G69" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H69" s="9"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="H69" s="14" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A70" s="16"/>
       <c r="B70" s="12"/>
-      <c r="C70" s="12"/>
-      <c r="D70" s="12"/>
-      <c r="E70" s="12"/>
-      <c r="F70" s="19"/>
-      <c r="G70" s="24"/>
-      <c r="H70" s="9"/>
+      <c r="C70" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D70" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E70" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F70" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H70" s="14"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="16"/>
       <c r="B71" s="12"/>
-      <c r="C71" s="12"/>
-      <c r="D71" s="12"/>
-      <c r="E71" s="12"/>
-      <c r="F71" s="19"/>
-      <c r="G71" s="24"/>
-      <c r="H71" s="9"/>
-    </row>
-    <row r="72" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="C71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="14"/>
+      <c r="G71" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H71" s="14"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="16"/>
       <c r="B72" s="12"/>
       <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D72" s="5" t="s">
-        <v>137</v>
+      <c r="D72" s="12" t="s">
+        <v>106</v>
       </c>
       <c r="E72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="15" t="s">
-        <v>168</v>
-      </c>
+      <c r="F72" s="14"/>
       <c r="G72" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H72" s="15"/>
+      <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="21"/>
-      <c r="B73" s="21"/>
-      <c r="C73" s="21"/>
-      <c r="D73" s="21"/>
-      <c r="E73" s="21"/>
-      <c r="H73" s="10"/>
+      <c r="A73" s="16"/>
+      <c r="B73" s="12"/>
+      <c r="C73" s="12"/>
+      <c r="D73" s="12"/>
+      <c r="E73" s="12"/>
+      <c r="F73" s="14"/>
+      <c r="G73" s="24"/>
+      <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="21"/>
-      <c r="B74" s="21"/>
-      <c r="C74" s="21"/>
-      <c r="D74" s="21"/>
-      <c r="E74" s="21"/>
-      <c r="H74" s="10"/>
+      <c r="A74" s="16"/>
+      <c r="B74" s="12"/>
+      <c r="C74" s="12"/>
+      <c r="D74" s="12"/>
+      <c r="E74" s="12"/>
+      <c r="F74" s="14"/>
+      <c r="G74" s="24"/>
+      <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H75" s="10"/>
+      <c r="A75" s="16"/>
+      <c r="B75" s="12"/>
+      <c r="C75" s="12"/>
+      <c r="D75" s="12"/>
+      <c r="E75" s="12"/>
+      <c r="F75" s="14"/>
+      <c r="G75" s="24"/>
+      <c r="H75" s="14"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H76" s="10"/>
+      <c r="A76" s="16"/>
+      <c r="B76" s="12"/>
+      <c r="C76" s="12"/>
+      <c r="D76" s="12"/>
+      <c r="E76" s="12"/>
+      <c r="F76" s="19"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H77" s="10"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H78" s="10"/>
+      <c r="A77" s="16"/>
+      <c r="B77" s="12"/>
+      <c r="C77" s="12"/>
+      <c r="D77" s="12"/>
+      <c r="E77" s="12"/>
+      <c r="F77" s="19"/>
+      <c r="G77" s="24"/>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A78" s="16"/>
+      <c r="B78" s="12"/>
+      <c r="C78" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>137</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="15" t="s">
+        <v>168</v>
+      </c>
+      <c r="G78" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H78" s="15"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="21"/>
+      <c r="B79" s="21"/>
+      <c r="C79" s="21"/>
+      <c r="D79" s="21"/>
+      <c r="E79" s="21"/>
       <c r="H79" s="10"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A80" s="21"/>
+      <c r="B80" s="21"/>
+      <c r="C80" s="21"/>
+      <c r="D80" s="21"/>
+      <c r="E80" s="21"/>
       <c r="H80" s="10"/>
     </row>
     <row r="81" spans="8:8" x14ac:dyDescent="0.3">
@@ -3262,6 +3354,24 @@
     </row>
     <row r="128" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H128" s="10"/>
+    </row>
+    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H129" s="10"/>
+    </row>
+    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H130" s="10"/>
+    </row>
+    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H131" s="10"/>
+    </row>
+    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H132" s="10"/>
+    </row>
+    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H133" s="10"/>
+    </row>
+    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H134" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{2D0BC0F3-3620-47ED-84AC-0AD7D3DC6E28}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2AC1B55D-FE5B-4DC9-9E66-1F3434F4F245}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E130730-A7F5-4015-8470-BFB0A7E6BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38520" yWindow="-3750" windowWidth="38640" windowHeight="21390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="492" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="216">
   <si>
     <t>Location</t>
   </si>
@@ -808,6 +808,29 @@
     <t>Complete Allocate Workout Screen
 Implement Allocate Workout Functionality
 Implement Create Workout Functionality</t>
+  </si>
+  <si>
+    <t>12:00-16:00</t>
+  </si>
+  <si>
+    <t>23:00-04:00</t>
+  </si>
+  <si>
+    <t>Implement Create Workout Functionality
+Implement Create Exercise Functionality</t>
+  </si>
+  <si>
+    <t>Completed Allocate Workout Screen
+Completed 30% Allocate Workout Functionality
+Completed 5% Create Exercise Funtionality</t>
+  </si>
+  <si>
+    <t>Implemented Create Workout and Create Exercise Functionality</t>
+  </si>
+  <si>
+    <t>Implement Allocate Exercise Functionality
+Implement Update Exercise Functionality
+Implement Delete Exercise Functionality</t>
   </si>
 </sst>
 </file>
@@ -1008,10 +1031,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1279,8 +1298,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H134"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="F71" sqref="F71"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G72" sqref="G72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3070,8 +3089,12 @@
       </c>
     </row>
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A70" s="16"/>
-      <c r="B70" s="12"/>
+      <c r="A70" s="16">
+        <v>45352</v>
+      </c>
+      <c r="B70" s="12" t="s">
+        <v>210</v>
+      </c>
       <c r="C70" s="12" t="s">
         <v>15</v>
       </c>
@@ -3085,13 +3108,19 @@
         <v>209</v>
       </c>
       <c r="G70" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H70" s="14"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A71" s="16"/>
-      <c r="B71" s="12"/>
+        <v>9</v>
+      </c>
+      <c r="H70" s="14" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A71" s="16">
+        <v>45354</v>
+      </c>
+      <c r="B71" s="12" t="s">
+        <v>211</v>
+      </c>
       <c r="C71" s="12" t="s">
         <v>15</v>
       </c>
@@ -3101,14 +3130,20 @@
       <c r="E71" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F71" s="14"/>
+      <c r="F71" s="14" t="s">
+        <v>212</v>
+      </c>
       <c r="G71" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H71" s="14"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A72" s="16"/>
+        <v>9</v>
+      </c>
+      <c r="H71" s="15" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A72" s="16">
+        <v>45355</v>
+      </c>
       <c r="B72" s="12"/>
       <c r="C72" s="12" t="s">
         <v>15</v>
@@ -3119,14 +3154,18 @@
       <c r="E72" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F72" s="14"/>
+      <c r="F72" s="14" t="s">
+        <v>215</v>
+      </c>
       <c r="G72" s="24" t="s">
         <v>63</v>
       </c>
       <c r="H72" s="14"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A73" s="16"/>
+      <c r="A73" s="16">
+        <v>45356</v>
+      </c>
       <c r="B73" s="12"/>
       <c r="C73" s="12"/>
       <c r="D73" s="12"/>
@@ -3136,7 +3175,9 @@
       <c r="H73" s="14"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A74" s="16"/>
+      <c r="A74" s="16">
+        <v>45357</v>
+      </c>
       <c r="B74" s="12"/>
       <c r="C74" s="12"/>
       <c r="D74" s="12"/>
@@ -3146,7 +3187,9 @@
       <c r="H74" s="14"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A75" s="16"/>
+      <c r="A75" s="16">
+        <v>45358</v>
+      </c>
       <c r="B75" s="12"/>
       <c r="C75" s="12"/>
       <c r="D75" s="12"/>

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E130730-A7F5-4015-8470-BFB0A7E6BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{2E130730-A7F5-4015-8470-BFB0A7E6BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D3D21C-BFC0-45F0-8FCB-AC415731D8DA}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="498" uniqueCount="216">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="224">
   <si>
     <t>Location</t>
   </si>
@@ -831,6 +831,37 @@
     <t>Implement Allocate Exercise Functionality
 Implement Update Exercise Functionality
 Implement Delete Exercise Functionality</t>
+  </si>
+  <si>
+    <t>22:00-02:40</t>
+  </si>
+  <si>
+    <t>Implemented Update and Delete Exercise Functionality
+Completed 50% Allocate Exercise Functionality</t>
+  </si>
+  <si>
+    <t>Implemented Allocate Exercise Log Screen</t>
+  </si>
+  <si>
+    <t>19:00-21:00</t>
+  </si>
+  <si>
+    <t>Implement Allocate Exercise Log Screen
+Fix Bugs in Allocate Exercise Screen</t>
+  </si>
+  <si>
+    <t>Implement Allocate Exercise Functionality
+Create Gym Finder Screen
+Create Allocate Exercise Log Screen</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented Allocate Exercise Log Functionality
+Created Gym Finder Screen
+Created Allocate Exercise Log Screen
+</t>
+  </si>
+  <si>
+    <t>17:00-20:30</t>
   </si>
 </sst>
 </file>
@@ -1031,6 +1062,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1296,10 +1331,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H134"/>
+  <dimension ref="A1:H136"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G72" sqref="G72"/>
+    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F80" sqref="F80"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3142,9 +3177,11 @@
     </row>
     <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A72" s="16">
-        <v>45355</v>
-      </c>
-      <c r="B72" s="12"/>
+        <v>45356</v>
+      </c>
+      <c r="B72" s="12" t="s">
+        <v>216</v>
+      </c>
       <c r="C72" s="12" t="s">
         <v>15</v>
       </c>
@@ -3158,54 +3195,102 @@
         <v>215</v>
       </c>
       <c r="G72" s="24" t="s">
-        <v>63</v>
-      </c>
-      <c r="H72" s="14"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="H72" s="14" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="16">
-        <v>45356</v>
-      </c>
-      <c r="B73" s="12"/>
-      <c r="C73" s="12"/>
-      <c r="D73" s="12"/>
-      <c r="E73" s="12"/>
-      <c r="F73" s="14"/>
-      <c r="G73" s="24"/>
-      <c r="H73" s="14"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+        <v>45359</v>
+      </c>
+      <c r="B73" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="C73" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D73" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E73" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F73" s="15" t="s">
+        <v>221</v>
+      </c>
+      <c r="G73" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H73" s="14" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="16">
-        <v>45357</v>
-      </c>
-      <c r="B74" s="12"/>
-      <c r="C74" s="12"/>
-      <c r="D74" s="12"/>
-      <c r="E74" s="12"/>
-      <c r="F74" s="14"/>
-      <c r="G74" s="24"/>
-      <c r="H74" s="14"/>
+        <v>45360</v>
+      </c>
+      <c r="B74" s="12" t="s">
+        <v>219</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G74" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="H74" s="15" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
-        <v>45358</v>
+        <v>45362</v>
       </c>
       <c r="B75" s="12"/>
-      <c r="C75" s="12"/>
-      <c r="D75" s="12"/>
-      <c r="E75" s="12"/>
-      <c r="F75" s="14"/>
-      <c r="G75" s="24"/>
-      <c r="H75" s="14"/>
+      <c r="C75" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D75" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E75" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F75" s="19"/>
+      <c r="G75" s="24" t="s">
+        <v>63</v>
+      </c>
+      <c r="H75" s="9"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A76" s="16"/>
+      <c r="A76" s="16">
+        <v>45363</v>
+      </c>
       <c r="B76" s="12"/>
-      <c r="C76" s="12"/>
-      <c r="D76" s="12"/>
-      <c r="E76" s="12"/>
+      <c r="C76" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D76" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E76" s="12" t="s">
+        <v>8</v>
+      </c>
       <c r="F76" s="19"/>
-      <c r="G76" s="24"/>
+      <c r="G76" s="24" t="s">
+        <v>63</v>
+      </c>
       <c r="H76" s="9"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -3218,88 +3303,102 @@
       <c r="G77" s="24"/>
       <c r="H77" s="9"/>
     </row>
-    <row r="78" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="16"/>
       <c r="B78" s="12"/>
-      <c r="C78" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D78" s="5" t="s">
+      <c r="C78" s="12"/>
+      <c r="D78" s="12"/>
+      <c r="E78" s="12"/>
+      <c r="F78" s="19"/>
+      <c r="G78" s="24"/>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="16"/>
+      <c r="B79" s="12"/>
+      <c r="C79" s="12"/>
+      <c r="D79" s="12"/>
+      <c r="E79" s="12"/>
+      <c r="F79" s="19"/>
+      <c r="G79" s="24"/>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A80" s="16"/>
+      <c r="B80" s="12"/>
+      <c r="C80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="E78" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F78" s="15" t="s">
+      <c r="E80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="G78" s="24" t="s">
+      <c r="G80" s="24" t="s">
         <v>63</v>
       </c>
-      <c r="H78" s="15"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="21"/>
-      <c r="B79" s="21"/>
-      <c r="C79" s="21"/>
-      <c r="D79" s="21"/>
-      <c r="E79" s="21"/>
-      <c r="H79" s="10"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A80" s="21"/>
-      <c r="B80" s="21"/>
-      <c r="C80" s="21"/>
-      <c r="D80" s="21"/>
-      <c r="E80" s="21"/>
-      <c r="H80" s="10"/>
-    </row>
-    <row r="81" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H80" s="15"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A81" s="21"/>
+      <c r="B81" s="21"/>
+      <c r="C81" s="21"/>
+      <c r="D81" s="21"/>
+      <c r="E81" s="21"/>
       <c r="H81" s="10"/>
     </row>
-    <row r="82" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A82" s="21"/>
+      <c r="B82" s="21"/>
+      <c r="C82" s="21"/>
+      <c r="D82" s="21"/>
+      <c r="E82" s="21"/>
       <c r="H82" s="10"/>
     </row>
-    <row r="83" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H83" s="10"/>
     </row>
-    <row r="84" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H84" s="10"/>
     </row>
-    <row r="85" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H85" s="10"/>
     </row>
-    <row r="86" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H86" s="10"/>
     </row>
-    <row r="87" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H87" s="10"/>
     </row>
-    <row r="88" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H88" s="10"/>
     </row>
-    <row r="89" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H89" s="10"/>
     </row>
-    <row r="90" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H90" s="10"/>
     </row>
-    <row r="91" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H91" s="10"/>
     </row>
-    <row r="92" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H92" s="10"/>
     </row>
-    <row r="93" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H93" s="10"/>
     </row>
-    <row r="94" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H94" s="10"/>
     </row>
-    <row r="95" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H95" s="10"/>
     </row>
-    <row r="96" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H96" s="10"/>
     </row>
     <row r="97" spans="8:8" x14ac:dyDescent="0.3">
@@ -3415,6 +3514,12 @@
     </row>
     <row r="134" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H134" s="10"/>
+    </row>
+    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H135" s="10"/>
+    </row>
+    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H136" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="13_ncr:1_{2E130730-A7F5-4015-8470-BFB0A7E6BBC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{14D3D21C-BFC0-45F0-8FCB-AC415731D8DA}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F43FBEA-E4DE-4CC9-87AD-F3E2D8C26515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="522" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="236">
   <si>
     <t>Location</t>
   </si>
@@ -627,14 +627,6 @@
     <t>05:00-05:34</t>
   </si>
   <si>
-    <t>Finished 70&amp; Dashboard Screen
-Finished 10% of Water Intake Screen</t>
-  </si>
-  <si>
-    <t>Finished 70&amp; Dashboard Screen
-Finished 70% of Water Intake Screen</t>
-  </si>
-  <si>
     <t>Submit Literature Review</t>
   </si>
   <si>
@@ -648,12 +640,6 @@
 Ordered Arduino Watch hardware parts (incl. spare) at a cost of £93.45.</t>
   </si>
   <si>
-    <t>Implement Date and Time Functionality
-Implement SD card data collection
-Implement Blood Oxygen Functionality
-Implement Heart Rate Functionality</t>
-  </si>
-  <si>
     <t>20:30-02:00</t>
   </si>
   <si>
@@ -751,10 +737,6 @@
 Implement Update Functionality</t>
   </si>
   <si>
-    <t>Completed 80&amp; of Workout History Screen
-Implemented Delete Functionality</t>
-  </si>
-  <si>
     <t>22:30-01:30</t>
   </si>
   <si>
@@ -855,13 +837,77 @@
 Create Allocate Exercise Log Screen</t>
   </si>
   <si>
-    <t xml:space="preserve">Implemented Allocate Exercise Log Functionality
+    <t>17:00-20:30</t>
+  </si>
+  <si>
+    <t>Update Requirements
+Update Final Report</t>
+  </si>
+  <si>
+    <t>Update Usecase Diagrams
+Update Class Digrams</t>
+  </si>
+  <si>
+    <t>20:00-12:30</t>
+  </si>
+  <si>
+    <t>Finished 70% Dashboard Screen
+Finished 70% of Water Intake Screen</t>
+  </si>
+  <si>
+    <t>Finished 70% Dashboard Screen
+Finished 10% of Water Intake Screen</t>
+  </si>
+  <si>
+    <t>Completed 80% of Workout History Screen
+Implemented Delete Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Implemented Allocate Exercise Functionality
 Created Gym Finder Screen
 Created Allocate Exercise Log Screen
 </t>
   </si>
   <si>
-    <t>17:00-20:30</t>
+    <t>Update Usecase Descriptions
+Update Class Diagrams
+Write Requirement Section</t>
+  </si>
+  <si>
+    <t>Write Design Section</t>
+  </si>
+  <si>
+    <t>Update Database Schema for LocalDB and CentralDB
+Write Methodology Section</t>
+  </si>
+  <si>
+    <t>20:00-03:30</t>
+  </si>
+  <si>
+    <t>Implement Date and Time Functionality
+Implement Blood Oxygen Functionality
+Implement Heart Rate Functionality</t>
+  </si>
+  <si>
+    <t>Implemented Blood Oxygen Functionality
+Implemented Heart Rate Functionality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discuss Draft Report </t>
+  </si>
+  <si>
+    <t>17:30-18:30</t>
+  </si>
+  <si>
+    <t>Move Table Heading to top.
+Add a Flowchart of the overall project.
+Include all table/diagram in the report.
+Add introduction/summary in each chapter.</t>
+  </si>
+  <si>
+    <t>Implement SD card data collection
+Start Work with Bluetooth Functionality
+Report Evaluation</t>
   </si>
 </sst>
 </file>
@@ -939,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -999,9 +1045,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -1018,9 +1061,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1062,10 +1102,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1331,10 +1367,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H136"/>
+  <dimension ref="A1:H137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F80" sqref="F80"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F83" sqref="F83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1344,8 +1380,8 @@
     <col min="3" max="3" width="9.44140625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.44140625" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="47.33203125" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" style="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="51.109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" style="26" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="75.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1394,7 +1430,7 @@
       <c r="F2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G2" s="24" t="s">
+      <c r="G2" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H2" s="7" t="s">
@@ -1420,7 +1456,7 @@
       <c r="F3" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G3" s="24" t="s">
+      <c r="G3" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H3" s="7" t="s">
@@ -1446,7 +1482,7 @@
       <c r="F4" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="24" t="s">
+      <c r="G4" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H4" s="7" t="s">
@@ -1472,7 +1508,7 @@
       <c r="F5" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G5" s="24" t="s">
+      <c r="G5" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H5" s="7"/>
@@ -1496,7 +1532,7 @@
       <c r="F6" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="25" t="s">
+      <c r="G6" s="24" t="s">
         <v>9</v>
       </c>
       <c r="H6" s="4" t="s">
@@ -1522,7 +1558,7 @@
       <c r="F7" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="24" t="s">
+      <c r="G7" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H7" s="6"/>
@@ -1546,14 +1582,14 @@
       <c r="F8" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="G8" s="24" t="s">
+      <c r="G8" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H8" s="7" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="99.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="81" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>45223</v>
       </c>
@@ -1572,11 +1608,11 @@
       <c r="F9" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="G9" s="24" t="s">
+      <c r="G9" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -1598,7 +1634,7 @@
       <c r="F10" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="G10" s="24" t="s">
+      <c r="G10" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H10" s="7" t="s">
@@ -1624,7 +1660,7 @@
       <c r="F11" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="G11" s="24" t="s">
+      <c r="G11" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H11" s="6" t="s">
@@ -1650,7 +1686,7 @@
       <c r="F12" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="G12" s="24" t="s">
+      <c r="G12" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H12" s="6" t="s">
@@ -1676,7 +1712,7 @@
       <c r="F13" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="G13" s="24" t="s">
+      <c r="G13" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H13" s="9"/>
@@ -1700,7 +1736,7 @@
       <c r="F14" s="6" t="s">
         <v>156</v>
       </c>
-      <c r="G14" s="24" t="s">
+      <c r="G14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="9" t="s">
@@ -1726,7 +1762,7 @@
       <c r="F15" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H15" s="6" t="s">
@@ -1752,7 +1788,7 @@
       <c r="F16" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="G16" s="24" t="s">
+      <c r="G16" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H16" s="15" t="s">
@@ -1778,7 +1814,7 @@
       <c r="F17" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="G17" s="24" t="s">
+      <c r="G17" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H17" s="9" t="s">
@@ -1804,7 +1840,7 @@
       <c r="F18" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="G18" s="24" t="s">
+      <c r="G18" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H18" s="7" t="s">
@@ -1830,7 +1866,7 @@
       <c r="F19" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="G19" s="24" t="s">
+      <c r="G19" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="7" t="s">
@@ -1856,7 +1892,7 @@
       <c r="F20" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="G20" s="24" t="s">
+      <c r="G20" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="6" t="s">
@@ -1882,7 +1918,7 @@
       <c r="F21" s="15" t="s">
         <v>80</v>
       </c>
-      <c r="G21" s="24" t="s">
+      <c r="G21" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="7" t="s">
@@ -1908,7 +1944,7 @@
       <c r="F22" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="G22" s="24" t="s">
+      <c r="G22" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
@@ -1934,7 +1970,7 @@
       <c r="F23" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="G23" s="24" t="s">
+      <c r="G23" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H23" s="7"/>
@@ -1958,7 +1994,7 @@
       <c r="F24" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="G24" s="24" t="s">
+      <c r="G24" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H24" s="7" t="s">
@@ -1984,7 +2020,7 @@
       <c r="F25" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="G25" s="24" t="s">
+      <c r="G25" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H25" s="13" t="s">
@@ -2007,17 +2043,17 @@
       <c r="E26" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="F26" s="19" t="s">
+      <c r="F26" s="9" t="s">
         <v>90</v>
       </c>
-      <c r="G26" s="24" t="s">
+      <c r="G26" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H26" s="7" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="27" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A27" s="16">
         <v>45284</v>
       </c>
@@ -2036,7 +2072,7 @@
       <c r="F27" s="14" t="s">
         <v>92</v>
       </c>
-      <c r="G27" s="24" t="s">
+      <c r="G27" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H27" s="7" t="s">
@@ -2062,7 +2098,7 @@
       <c r="F28" s="18" t="s">
         <v>94</v>
       </c>
-      <c r="G28" s="24" t="s">
+      <c r="G28" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H28" s="6" t="s">
@@ -2088,7 +2124,7 @@
       <c r="F29" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="G29" s="24" t="s">
+      <c r="G29" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H29" s="6" t="s">
@@ -2114,7 +2150,7 @@
       <c r="F30" s="14" t="s">
         <v>100</v>
       </c>
-      <c r="G30" s="24" t="s">
+      <c r="G30" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H30" s="15" t="s">
@@ -2140,7 +2176,7 @@
       <c r="F31" s="19" t="s">
         <v>97</v>
       </c>
-      <c r="G31" s="24" t="s">
+      <c r="G31" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="9" t="s">
@@ -2166,7 +2202,7 @@
       <c r="F32" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="G32" s="24" t="s">
+      <c r="G32" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H32" s="9"/>
@@ -2181,7 +2217,7 @@
       <c r="C33" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="21" t="s">
         <v>17</v>
       </c>
       <c r="E33" s="17" t="s">
@@ -2190,7 +2226,7 @@
       <c r="F33" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="G33" s="24" t="s">
+      <c r="G33" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H33" s="9"/>
@@ -2214,7 +2250,7 @@
       <c r="F34" s="14" t="s">
         <v>110</v>
       </c>
-      <c r="G34" s="26" t="s">
+      <c r="G34" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="9" t="s">
@@ -2240,7 +2276,7 @@
       <c r="F35" s="14" t="s">
         <v>112</v>
       </c>
-      <c r="G35" s="26" t="s">
+      <c r="G35" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H35" s="9" t="s">
@@ -2266,7 +2302,7 @@
       <c r="F36" s="14" t="s">
         <v>114</v>
       </c>
-      <c r="G36" s="24" t="s">
+      <c r="G36" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H36" s="15" t="s">
@@ -2292,7 +2328,7 @@
       <c r="F37" s="14" t="s">
         <v>116</v>
       </c>
-      <c r="G37" s="24" t="s">
+      <c r="G37" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H37" s="15" t="s">
@@ -2318,7 +2354,7 @@
       <c r="F38" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G38" s="24" t="s">
+      <c r="G38" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H38" s="9" t="s">
@@ -2344,8 +2380,8 @@
       <c r="F39" s="14" t="s">
         <v>118</v>
       </c>
-      <c r="G39" s="24" t="s">
-        <v>63</v>
+      <c r="G39" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="H39" s="15" t="s">
         <v>149</v>
@@ -2370,8 +2406,8 @@
       <c r="F40" s="14" t="s">
         <v>123</v>
       </c>
-      <c r="G40" s="24" t="s">
-        <v>63</v>
+      <c r="G40" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="H40" s="15" t="s">
         <v>126</v>
@@ -2396,7 +2432,7 @@
       <c r="F41" s="14" t="s">
         <v>125</v>
       </c>
-      <c r="G41" s="24" t="s">
+      <c r="G41" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="15" t="s">
@@ -2422,7 +2458,7 @@
       <c r="F42" s="14" t="s">
         <v>127</v>
       </c>
-      <c r="G42" s="24" t="s">
+      <c r="G42" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H42" s="15" t="s">
@@ -2448,7 +2484,7 @@
       <c r="F43" s="14" t="s">
         <v>132</v>
       </c>
-      <c r="G43" s="24" t="s">
+      <c r="G43" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H43" s="15" t="s">
@@ -2474,7 +2510,7 @@
       <c r="F44" s="14" t="s">
         <v>154</v>
       </c>
-      <c r="G44" s="24" t="s">
+      <c r="G44" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H44" s="15" t="s">
@@ -2488,7 +2524,7 @@
       <c r="B45" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="22" t="s">
         <v>134</v>
       </c>
       <c r="D45" s="2" t="s">
@@ -2500,7 +2536,7 @@
       <c r="F45" s="15" t="s">
         <v>138</v>
       </c>
-      <c r="G45" s="24" t="s">
+      <c r="G45" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="15" t="s">
@@ -2526,7 +2562,7 @@
       <c r="F46" s="15" t="s">
         <v>139</v>
       </c>
-      <c r="G46" s="24" t="s">
+      <c r="G46" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="15" t="s">
@@ -2552,7 +2588,7 @@
       <c r="F47" s="15" t="s">
         <v>144</v>
       </c>
-      <c r="G47" s="24" t="s">
+      <c r="G47" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H47" s="15"/>
@@ -2576,7 +2612,7 @@
       <c r="F48" s="15" t="s">
         <v>146</v>
       </c>
-      <c r="G48" s="24" t="s">
+      <c r="G48" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="15" t="s">
@@ -2600,9 +2636,9 @@
         <v>8</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>165</v>
-      </c>
-      <c r="G49" s="24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G49" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="15" t="s">
@@ -2626,9 +2662,9 @@
         <v>8</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>166</v>
-      </c>
-      <c r="G50" s="24" t="s">
+        <v>164</v>
+      </c>
+      <c r="G50" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H50" s="15" t="s">
@@ -2652,13 +2688,13 @@
         <v>8</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G51" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G51" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>163</v>
+        <v>223</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2678,13 +2714,13 @@
         <v>8</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="G52" s="24" t="s">
+        <v>168</v>
+      </c>
+      <c r="G52" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>164</v>
+        <v>222</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2704,13 +2740,13 @@
         <v>8</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>170</v>
-      </c>
-      <c r="G53" s="24" t="s">
+        <v>167</v>
+      </c>
+      <c r="G53" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2730,13 +2766,13 @@
         <v>8</v>
       </c>
       <c r="F54" s="14" t="s">
+        <v>167</v>
+      </c>
+      <c r="G54" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H54" s="15" t="s">
         <v>170</v>
-      </c>
-      <c r="G54" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H54" s="15" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2756,13 +2792,13 @@
         <v>8</v>
       </c>
       <c r="F55" s="14" t="s">
+        <v>171</v>
+      </c>
+      <c r="G55" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>174</v>
-      </c>
-      <c r="G55" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2770,7 +2806,7 @@
         <v>45327</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>15</v>
@@ -2782,13 +2818,13 @@
         <v>8</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="G56" s="24" t="s">
+        <v>171</v>
+      </c>
+      <c r="G56" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2796,7 +2832,7 @@
         <v>45328</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>15</v>
@@ -2808,13 +2844,13 @@
         <v>8</v>
       </c>
       <c r="F57" s="14" t="s">
+        <v>172</v>
+      </c>
+      <c r="G57" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H57" s="14" t="s">
         <v>175</v>
-      </c>
-      <c r="G57" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2822,7 +2858,7 @@
         <v>45329</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>15</v>
@@ -2834,13 +2870,13 @@
         <v>8</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>179</v>
-      </c>
-      <c r="G58" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="G58" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2848,7 +2884,7 @@
         <v>45330</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>15</v>
@@ -2860,13 +2896,13 @@
         <v>8</v>
       </c>
       <c r="F59" s="14" t="s">
-        <v>185</v>
-      </c>
-      <c r="G59" s="24" t="s">
+        <v>182</v>
+      </c>
+      <c r="G59" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H59" s="9" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2874,7 +2910,7 @@
         <v>45331</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>7</v>
@@ -2886,9 +2922,9 @@
         <v>26</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G60" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G60" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H60" s="9"/>
@@ -2898,7 +2934,7 @@
         <v>45332</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>15</v>
@@ -2910,13 +2946,13 @@
         <v>8</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G61" s="24" t="s">
+        <v>187</v>
+      </c>
+      <c r="G61" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2924,7 +2960,7 @@
         <v>45333</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>15</v>
@@ -2936,13 +2972,13 @@
         <v>8</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G62" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G62" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2950,7 +2986,7 @@
         <v>45335</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>15</v>
@@ -2962,13 +2998,13 @@
         <v>8</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="G63" s="24" t="s">
+        <v>189</v>
+      </c>
+      <c r="G63" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2976,7 +3012,7 @@
         <v>45336</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>15</v>
@@ -2988,13 +3024,13 @@
         <v>8</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>194</v>
-      </c>
-      <c r="G64" s="24" t="s">
+        <v>191</v>
+      </c>
+      <c r="G64" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3002,7 +3038,7 @@
         <v>45342</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>15</v>
@@ -3014,9 +3050,9 @@
         <v>8</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>191</v>
-      </c>
-      <c r="G65" s="24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G65" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H65" s="9"/>
@@ -3026,7 +3062,7 @@
         <v>45343</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>15</v>
@@ -3038,13 +3074,13 @@
         <v>8</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>201</v>
-      </c>
-      <c r="G66" s="24" t="s">
+        <v>197</v>
+      </c>
+      <c r="G66" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3052,7 +3088,7 @@
         <v>45344</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>15</v>
@@ -3064,21 +3100,21 @@
         <v>8</v>
       </c>
       <c r="F67" s="14" t="s">
-        <v>202</v>
-      </c>
-      <c r="G67" s="24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G67" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H67" s="15" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="16">
         <v>45345</v>
       </c>
-      <c r="B68" s="29" t="s">
-        <v>205</v>
+      <c r="B68" s="27" t="s">
+        <v>201</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>7</v>
@@ -3090,9 +3126,9 @@
         <v>26</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>183</v>
-      </c>
-      <c r="G68" s="24" t="s">
+        <v>180</v>
+      </c>
+      <c r="G68" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H68" s="9"/>
@@ -3102,7 +3138,7 @@
         <v>45348</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>15</v>
@@ -3114,13 +3150,13 @@
         <v>8</v>
       </c>
       <c r="F69" s="14" t="s">
-        <v>207</v>
-      </c>
-      <c r="G69" s="24" t="s">
+        <v>203</v>
+      </c>
+      <c r="G69" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H69" s="14" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3128,7 +3164,7 @@
         <v>45352</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>15</v>
@@ -3140,13 +3176,13 @@
         <v>8</v>
       </c>
       <c r="F70" s="14" t="s">
+        <v>205</v>
+      </c>
+      <c r="G70" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H70" s="14" t="s">
         <v>209</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>9</v>
-      </c>
-      <c r="H70" s="14" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3154,7 +3190,7 @@
         <v>45354</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>15</v>
@@ -3166,13 +3202,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="G71" s="24" t="s">
+        <v>208</v>
+      </c>
+      <c r="G71" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3180,7 +3216,7 @@
         <v>45356</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>15</v>
@@ -3192,13 +3228,13 @@
         <v>8</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>215</v>
-      </c>
-      <c r="G72" s="24" t="s">
+        <v>211</v>
+      </c>
+      <c r="G72" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3206,7 +3242,7 @@
         <v>45359</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>15</v>
@@ -3218,13 +3254,13 @@
         <v>8</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="G73" s="24" t="s">
+        <v>217</v>
+      </c>
+      <c r="G73" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3232,7 +3268,7 @@
         <v>45360</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>15</v>
@@ -3244,20 +3280,22 @@
         <v>8</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>220</v>
-      </c>
-      <c r="G74" s="24" t="s">
+        <v>216</v>
+      </c>
+      <c r="G74" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A75" s="16">
-        <v>45362</v>
-      </c>
-      <c r="B75" s="12"/>
+        <v>45371</v>
+      </c>
+      <c r="B75" s="12" t="s">
+        <v>130</v>
+      </c>
       <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
@@ -3267,17 +3305,21 @@
       <c r="E75" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F75" s="19"/>
-      <c r="G75" s="24" t="s">
-        <v>63</v>
+      <c r="F75" s="14" t="s">
+        <v>219</v>
+      </c>
+      <c r="G75" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="H75" s="9"/>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A76" s="16">
-        <v>45363</v>
-      </c>
-      <c r="B76" s="12"/>
+        <v>45372</v>
+      </c>
+      <c r="B76" s="12" t="s">
+        <v>221</v>
+      </c>
       <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
@@ -3287,80 +3329,179 @@
       <c r="E76" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F76" s="19"/>
-      <c r="G76" s="24" t="s">
+      <c r="F76" s="14" t="s">
+        <v>220</v>
+      </c>
+      <c r="G76" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H76" s="9"/>
+    </row>
+    <row r="77" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A77" s="16">
+        <v>45373</v>
+      </c>
+      <c r="B77" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D77" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E77" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F77" s="14" t="s">
+        <v>226</v>
+      </c>
+      <c r="G77" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H77" s="9"/>
+    </row>
+    <row r="78" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A78" s="16">
+        <v>45374</v>
+      </c>
+      <c r="B78" s="12" t="s">
+        <v>221</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D78" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E78" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F78" s="14" t="s">
+        <v>228</v>
+      </c>
+      <c r="G78" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H78" s="9"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A79" s="16">
+        <v>45375</v>
+      </c>
+      <c r="B79" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="C79" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D79" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="E79" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F79" s="19" t="s">
+        <v>227</v>
+      </c>
+      <c r="G79" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H79" s="9"/>
+    </row>
+    <row r="80" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A80" s="16">
+        <v>45376</v>
+      </c>
+      <c r="B80" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="15" t="s">
+        <v>230</v>
+      </c>
+      <c r="G80" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="15" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A81" s="16">
+        <v>45378</v>
+      </c>
+      <c r="B81" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>7</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E81" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="F81" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="G81" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H81" s="15" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A82" s="16">
+        <v>45382</v>
+      </c>
+      <c r="B82" s="12"/>
+      <c r="C82" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D82" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E82" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F82" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="G82" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H76" s="9"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A77" s="16"/>
-      <c r="B77" s="12"/>
-      <c r="C77" s="12"/>
-      <c r="D77" s="12"/>
-      <c r="E77" s="12"/>
-      <c r="F77" s="19"/>
-      <c r="G77" s="24"/>
-      <c r="H77" s="9"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A78" s="16"/>
-      <c r="B78" s="12"/>
-      <c r="C78" s="12"/>
-      <c r="D78" s="12"/>
-      <c r="E78" s="12"/>
-      <c r="F78" s="19"/>
-      <c r="G78" s="24"/>
-      <c r="H78" s="9"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A79" s="16"/>
-      <c r="B79" s="12"/>
-      <c r="C79" s="12"/>
-      <c r="D79" s="12"/>
-      <c r="E79" s="12"/>
-      <c r="F79" s="19"/>
-      <c r="G79" s="24"/>
-      <c r="H79" s="9"/>
-    </row>
-    <row r="80" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A80" s="16"/>
-      <c r="B80" s="12"/>
-      <c r="C80" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>137</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="G80" s="24" t="s">
+      <c r="H82" s="15"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A83" s="16">
+        <v>45379</v>
+      </c>
+      <c r="B83" s="12"/>
+      <c r="C83" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>147</v>
+      </c>
+      <c r="E83" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F83" s="15"/>
+      <c r="G83" s="23" t="s">
         <v>63</v>
       </c>
-      <c r="H80" s="15"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A81" s="21"/>
-      <c r="B81" s="21"/>
-      <c r="C81" s="21"/>
-      <c r="D81" s="21"/>
-      <c r="E81" s="21"/>
-      <c r="H81" s="10"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A82" s="21"/>
-      <c r="B82" s="21"/>
-      <c r="C82" s="21"/>
-      <c r="D82" s="21"/>
-      <c r="E82" s="21"/>
-      <c r="H82" s="10"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H83" s="10"/>
+      <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H84" s="10"/>
@@ -3520,6 +3661,9 @@
     </row>
     <row r="136" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H136" s="10"/>
+    </row>
+    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H137" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F43FBEA-E4DE-4CC9-87AD-F3E2D8C26515}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{206535C0-5B1C-41B2-B2D5-3FEF4FA90A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5422B02-FA91-40CD-94EE-A439BC033C41}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="236">
   <si>
     <t>Location</t>
   </si>
@@ -585,9 +585,6 @@
     <t>19:00:20:50</t>
   </si>
   <si>
-    <t>Received First Batch of Arduino Watch Parts</t>
-  </si>
-  <si>
     <t>Complete Literacture Review
 Test Final Batch of Arduino Watch Components
 Assemble Arduino Watch
@@ -908,6 +905,9 @@
     <t>Implement SD card data collection
 Start Work with Bluetooth Functionality
 Report Evaluation</t>
+  </si>
+  <si>
+    <t>Recieved First Batch of Arduino Watch Parts</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1063,6 +1063,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1367,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H137"/>
+  <dimension ref="A1:H138"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F83" sqref="F83"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B83" sqref="B83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1612,7 +1615,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -1734,13 +1737,13 @@
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>153</v>
+        <v>235</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1948,7 +1951,7 @@
         <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2508,13 +2511,13 @@
         <v>8</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>154</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2540,7 +2543,7 @@
         <v>9</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -2624,19 +2627,19 @@
         <v>45317</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>162</v>
-      </c>
-      <c r="C49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>163</v>
       </c>
       <c r="G49" s="23" t="s">
         <v>9</v>
@@ -2650,25 +2653,25 @@
         <v>45320</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>158</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>160</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>164</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2688,13 +2691,13 @@
         <v>8</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2714,13 +2717,13 @@
         <v>8</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2740,13 +2743,13 @@
         <v>8</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2766,13 +2769,13 @@
         <v>8</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2780,7 +2783,7 @@
         <v>45326</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>15</v>
@@ -2792,13 +2795,13 @@
         <v>8</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2806,7 +2809,7 @@
         <v>45327</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>15</v>
@@ -2818,13 +2821,13 @@
         <v>8</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2832,7 +2835,7 @@
         <v>45328</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>15</v>
@@ -2844,13 +2847,13 @@
         <v>8</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2858,7 +2861,7 @@
         <v>45329</v>
       </c>
       <c r="B58" s="12" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C58" s="12" t="s">
         <v>15</v>
@@ -2870,13 +2873,13 @@
         <v>8</v>
       </c>
       <c r="F58" s="14" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G58" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2884,7 +2887,7 @@
         <v>45330</v>
       </c>
       <c r="B59" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C59" s="12" t="s">
         <v>15</v>
@@ -2896,13 +2899,13 @@
         <v>8</v>
       </c>
       <c r="F59" s="14" t="s">
+        <v>181</v>
+      </c>
+      <c r="G59" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>182</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2910,7 +2913,7 @@
         <v>45331</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>7</v>
@@ -2922,7 +2925,7 @@
         <v>26</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>9</v>
@@ -2934,7 +2937,7 @@
         <v>45332</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>15</v>
@@ -2946,13 +2949,13 @@
         <v>8</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2960,7 +2963,7 @@
         <v>45333</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>15</v>
@@ -2972,13 +2975,13 @@
         <v>8</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2986,7 +2989,7 @@
         <v>45335</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>15</v>
@@ -2998,13 +3001,13 @@
         <v>8</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3012,7 +3015,7 @@
         <v>45336</v>
       </c>
       <c r="B64" s="12" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C64" s="12" t="s">
         <v>15</v>
@@ -3024,13 +3027,13 @@
         <v>8</v>
       </c>
       <c r="F64" s="14" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="G64" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H64" s="15" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3038,7 +3041,7 @@
         <v>45342</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>15</v>
@@ -3050,7 +3053,7 @@
         <v>8</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>9</v>
@@ -3062,7 +3065,7 @@
         <v>45343</v>
       </c>
       <c r="B66" s="12" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="C66" s="12" t="s">
         <v>15</v>
@@ -3074,13 +3077,13 @@
         <v>8</v>
       </c>
       <c r="F66" s="14" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="G66" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H66" s="15" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3088,7 +3091,7 @@
         <v>45344</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>15</v>
@@ -3100,13 +3103,13 @@
         <v>8</v>
       </c>
       <c r="F67" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="15" t="s">
         <v>198</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3114,7 +3117,7 @@
         <v>45345</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>7</v>
@@ -3126,7 +3129,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>9</v>
@@ -3138,7 +3141,7 @@
         <v>45348</v>
       </c>
       <c r="B69" s="12" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C69" s="12" t="s">
         <v>15</v>
@@ -3150,13 +3153,13 @@
         <v>8</v>
       </c>
       <c r="F69" s="14" t="s">
+        <v>202</v>
+      </c>
+      <c r="G69" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>203</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3164,7 +3167,7 @@
         <v>45352</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>15</v>
@@ -3176,13 +3179,13 @@
         <v>8</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3190,7 +3193,7 @@
         <v>45354</v>
       </c>
       <c r="B71" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C71" s="12" t="s">
         <v>15</v>
@@ -3202,13 +3205,13 @@
         <v>8</v>
       </c>
       <c r="F71" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="G71" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3216,7 +3219,7 @@
         <v>45356</v>
       </c>
       <c r="B72" s="12" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="C72" s="12" t="s">
         <v>15</v>
@@ -3228,13 +3231,13 @@
         <v>8</v>
       </c>
       <c r="F72" s="14" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="G72" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H72" s="14" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3242,7 +3245,7 @@
         <v>45359</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>15</v>
@@ -3254,13 +3257,13 @@
         <v>8</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G73" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3268,7 +3271,7 @@
         <v>45360</v>
       </c>
       <c r="B74" s="12" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C74" s="12" t="s">
         <v>15</v>
@@ -3280,13 +3283,13 @@
         <v>8</v>
       </c>
       <c r="F74" s="14" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G74" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3306,7 +3309,7 @@
         <v>8</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>9</v>
@@ -3318,7 +3321,7 @@
         <v>45372</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>15</v>
@@ -3330,7 +3333,7 @@
         <v>8</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="G76" s="23" t="s">
         <v>9</v>
@@ -3342,7 +3345,7 @@
         <v>45373</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>15</v>
@@ -3354,7 +3357,7 @@
         <v>8</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>9</v>
@@ -3366,7 +3369,7 @@
         <v>45374</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>15</v>
@@ -3378,7 +3381,7 @@
         <v>8</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>9</v>
@@ -3390,7 +3393,7 @@
         <v>45375</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>15</v>
@@ -3402,7 +3405,7 @@
         <v>8</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>9</v>
@@ -3414,25 +3417,25 @@
         <v>45376</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="15" t="s">
         <v>229</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="15" t="s">
+      <c r="G80" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="15" t="s">
         <v>230</v>
-      </c>
-      <c r="G80" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3440,71 +3443,92 @@
         <v>45378</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="5" t="s">
+      <c r="D81" s="28" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="82" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A82" s="16">
         <v>45382</v>
       </c>
-      <c r="B82" s="12"/>
+      <c r="B82" s="12" t="s">
+        <v>107</v>
+      </c>
       <c r="C82" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="5" t="s">
-        <v>147</v>
-      </c>
-      <c r="E82" s="12" t="s">
+      <c r="D82" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="E82" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G82" s="23" t="s">
-        <v>63</v>
+        <v>9</v>
       </c>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
-        <v>45379</v>
+        <v>45383</v>
       </c>
       <c r="B83" s="12"/>
       <c r="C83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="5" t="s">
+      <c r="D83" s="28" t="s">
         <v>147</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F83" s="15"/>
+      <c r="F83" s="15" t="s">
+        <v>234</v>
+      </c>
       <c r="G83" s="23" t="s">
         <v>63</v>
       </c>
       <c r="H83" s="15"/>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H84" s="10"/>
+      <c r="A84" s="16">
+        <v>45379</v>
+      </c>
+      <c r="B84" s="12"/>
+      <c r="C84" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D84" s="28" t="s">
+        <v>147</v>
+      </c>
+      <c r="E84" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F84" s="15"/>
+      <c r="G84" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="H84" s="15"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H85" s="10"/>
@@ -3664,6 +3688,9 @@
     </row>
     <row r="137" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H137" s="10"/>
+    </row>
+    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H138" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>

--- a/Documents/Sprint Logs.xlsx
+++ b/Documents/Sprint Logs.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27425"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://uweacuk-my.sharepoint.com/personal/ali2_suhail_live_uwe_ac_uk/Documents/UWE Bristol &amp; Stuff/3rd Year UWE/Digital Systems/Alistana Fitness &amp; Nutrition Tracker/AFNT/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alisu\OneDrive - UWE Bristol\UWE Bristol &amp; Stuff\3rd Year UWE\Digital Systems\Alistana Fitness &amp; Nutrition Tracker\AFNT\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="17" documentId="13_ncr:1_{206535C0-5B1C-41B2-B2D5-3FEF4FA90A39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5422B02-FA91-40CD-94EE-A439BC033C41}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58AE748A-8CE0-4192-BA4A-FDA7D93F3733}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-27285" yWindow="2085" windowWidth="23010" windowHeight="12480" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="568" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="608" uniqueCount="246">
   <si>
     <t>Location</t>
   </si>
@@ -254,9 +254,6 @@
     <t>03:00-04:10</t>
   </si>
   <si>
-    <t>Not Complete</t>
-  </si>
-  <si>
     <t>21:40-22:30</t>
   </si>
   <si>
@@ -902,12 +899,45 @@
 Add introduction/summary in each chapter.</t>
   </si>
   <si>
+    <t>Recieved First Batch of Arduino Watch Parts</t>
+  </si>
+  <si>
     <t>Implement SD card data collection
-Start Work with Bluetooth Functionality
 Report Evaluation</t>
   </si>
   <si>
-    <t>Recieved First Batch of Arduino Watch Parts</t>
+    <t>Completed Report Evaluation
+Partially Implemented SD card data logging</t>
+  </si>
+  <si>
+    <t>Implement SD card data collection</t>
+  </si>
+  <si>
+    <t>Completed Implemented SD card data logging</t>
+  </si>
+  <si>
+    <t>21:00-01:00</t>
+  </si>
+  <si>
+    <t>Start Work with Bluetooth Functionality</t>
+  </si>
+  <si>
+    <t>Test Bluetooth LE Functionality</t>
+  </si>
+  <si>
+    <t>18:00-00:00</t>
+  </si>
+  <si>
+    <t>19:30-23:00</t>
+  </si>
+  <si>
+    <t>Implement Bluetooth connection between Android and Arduino Watch</t>
+  </si>
+  <si>
+    <t>Transfer data between Arduino Watch and Andriod phone</t>
+  </si>
+  <si>
+    <t>21:00-06:15</t>
   </si>
 </sst>
 </file>
@@ -1064,8 +1094,8 @@
     <xf numFmtId="20" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1370,10 +1400,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H138"/>
+  <dimension ref="A1:H140"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B83" sqref="B83"/>
+    <sheetView tabSelected="1" topLeftCell="A81" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F84" sqref="F84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -1615,7 +1645,7 @@
         <v>9</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="62.4" x14ac:dyDescent="0.3">
@@ -1725,25 +1755,25 @@
         <v>45234</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="C14" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G14" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H14" s="9" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1847,7 +1877,7 @@
         <v>9</v>
       </c>
       <c r="H18" s="7" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -1855,7 +1885,7 @@
         <v>45277</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>15</v>
@@ -1867,13 +1897,13 @@
         <v>8</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="G19" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -1893,13 +1923,13 @@
         <v>8</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="G20" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1907,7 +1937,7 @@
         <v>45279</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C21" s="2" t="s">
         <v>15</v>
@@ -1919,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G21" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H21" s="7" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -1933,25 +1963,25 @@
         <v>45280</v>
       </c>
       <c r="B22" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D22" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F22" s="15" t="s">
         <v>73</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D22" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E22" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F22" s="15" t="s">
-        <v>74</v>
-      </c>
       <c r="G22" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H22" s="7" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -1959,7 +1989,7 @@
         <v>45281</v>
       </c>
       <c r="B23" s="17" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C23" s="2" t="s">
         <v>10</v>
@@ -1971,7 +2001,7 @@
         <v>11</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G23" s="23" t="s">
         <v>9</v>
@@ -1983,25 +2013,25 @@
         <v>45281</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C24" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D24" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H24" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="G24" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H24" s="7" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="46.8" x14ac:dyDescent="0.3">
@@ -2009,25 +2039,25 @@
         <v>45282</v>
       </c>
       <c r="B25" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="D25" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="F25" s="18" t="s">
+        <v>78</v>
+      </c>
+      <c r="G25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H25" s="13" t="s">
         <v>83</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="D25" s="5" t="s">
-        <v>76</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="F25" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="G25" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H25" s="13" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -2035,7 +2065,7 @@
         <v>45283</v>
       </c>
       <c r="B26" s="12" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>15</v>
@@ -2047,13 +2077,13 @@
         <v>8</v>
       </c>
       <c r="F26" s="9" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H26" s="7" t="s">
         <v>90</v>
-      </c>
-      <c r="G26" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H26" s="7" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="42.6" customHeight="1" x14ac:dyDescent="0.3">
@@ -2061,7 +2091,7 @@
         <v>45284</v>
       </c>
       <c r="B27" s="12" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>15</v>
@@ -2073,13 +2103,13 @@
         <v>8</v>
       </c>
       <c r="F27" s="14" t="s">
+        <v>91</v>
+      </c>
+      <c r="G27" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H27" s="7" t="s">
         <v>92</v>
-      </c>
-      <c r="G27" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H27" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2087,25 +2117,25 @@
         <v>45285</v>
       </c>
       <c r="B28" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D28" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="C28" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" s="5" t="s">
-        <v>89</v>
-      </c>
       <c r="E28" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F28" s="18" t="s">
+        <v>93</v>
+      </c>
+      <c r="G28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H28" s="6" t="s">
         <v>94</v>
-      </c>
-      <c r="G28" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H28" s="6" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -2113,25 +2143,25 @@
         <v>45286</v>
       </c>
       <c r="B29" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D29" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E29" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F29" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D29" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F29" s="18" t="s">
+      <c r="G29" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H29" s="6" t="s">
         <v>97</v>
-      </c>
-      <c r="G29" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2139,25 +2169,25 @@
         <v>45286</v>
       </c>
       <c r="B30" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D30" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E30" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F30" s="14" t="s">
         <v>99</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D30" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="E30" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F30" s="14" t="s">
+      <c r="G30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H30" s="15" t="s">
         <v>100</v>
-      </c>
-      <c r="G30" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H30" s="15" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -2165,25 +2195,25 @@
         <v>45287</v>
       </c>
       <c r="B31" s="12" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C31" s="2" t="s">
         <v>15</v>
       </c>
       <c r="D31" s="5" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E31" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F31" s="19" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G31" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H31" s="9" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -2197,13 +2227,13 @@
         <v>15</v>
       </c>
       <c r="D32" s="5" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E32" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F32" s="20" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G32" s="23" t="s">
         <v>9</v>
@@ -2215,7 +2245,7 @@
         <v>45303</v>
       </c>
       <c r="B33" s="12" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C33" s="12" t="s">
         <v>7</v>
@@ -2227,7 +2257,7 @@
         <v>26</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="G33" s="23" t="s">
         <v>9</v>
@@ -2239,25 +2269,25 @@
         <v>45304</v>
       </c>
       <c r="B34" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C34" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E34" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F34" s="14" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="G34" s="25" t="s">
         <v>9</v>
       </c>
       <c r="H34" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2265,25 +2295,25 @@
         <v>45305</v>
       </c>
       <c r="B35" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="F35" s="14" t="s">
         <v>111</v>
       </c>
-      <c r="C35" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D35" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="E35" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F35" s="14" t="s">
+      <c r="G35" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="H35" s="9" t="s">
         <v>112</v>
-      </c>
-      <c r="G35" s="25" t="s">
-        <v>9</v>
-      </c>
-      <c r="H35" s="9" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2291,25 +2321,25 @@
         <v>45306</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C36" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E36" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F36" s="14" t="s">
+        <v>113</v>
+      </c>
+      <c r="G36" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H36" s="15" t="s">
         <v>114</v>
-      </c>
-      <c r="G36" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H36" s="15" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2317,25 +2347,25 @@
         <v>45307</v>
       </c>
       <c r="B37" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C37" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E37" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F37" s="14" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H37" s="15" t="s">
         <v>116</v>
-      </c>
-      <c r="G37" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H37" s="15" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="38" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2343,25 +2373,25 @@
         <v>45308</v>
       </c>
       <c r="B38" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C38" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D38" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E38" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F38" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G38" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H38" s="9" t="s">
         <v>118</v>
-      </c>
-      <c r="G38" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H38" s="9" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="39" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2375,19 +2405,19 @@
         <v>15</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E39" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="G39" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H39" s="15" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="40" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2395,25 +2425,25 @@
         <v>45310</v>
       </c>
       <c r="B40" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C40" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E40" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="G40" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H40" s="15" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="41" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2421,25 +2451,25 @@
         <v>45311</v>
       </c>
       <c r="B41" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C41" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D41" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E41" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F41" s="14" t="s">
         <v>124</v>
       </c>
-      <c r="E41" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F41" s="14" t="s">
-        <v>125</v>
-      </c>
       <c r="G41" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H41" s="15" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="42" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2447,25 +2477,25 @@
         <v>45312</v>
       </c>
       <c r="B42" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C42" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="E42" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="14" t="s">
+        <v>126</v>
+      </c>
+      <c r="G42" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H42" s="15" t="s">
         <v>128</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="E42" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H42" s="15" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="43" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2473,25 +2503,25 @@
         <v>45313</v>
       </c>
       <c r="B43" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C43" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D43" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="E43" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F43" s="14" t="s">
         <v>131</v>
       </c>
-      <c r="E43" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F43" s="14" t="s">
+      <c r="G43" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H43" s="15" t="s">
         <v>132</v>
-      </c>
-      <c r="G43" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H43" s="15" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="44" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2499,25 +2529,25 @@
         <v>45314</v>
       </c>
       <c r="B44" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C44" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="E44" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F44" s="14" t="s">
+        <v>152</v>
+      </c>
+      <c r="G44" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H44" s="15" t="s">
         <v>153</v>
-      </c>
-      <c r="G44" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H44" s="15" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="45" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2525,25 +2555,25 @@
         <v>45315</v>
       </c>
       <c r="B45" s="12" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E45" s="17" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G45" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H45" s="15" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="46" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -2551,25 +2581,25 @@
         <v>45315</v>
       </c>
       <c r="B46" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="C46" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D46" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="C46" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D46" s="5" t="s">
-        <v>137</v>
-      </c>
       <c r="E46" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G46" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H46" s="15" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="47" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -2577,7 +2607,7 @@
         <v>45316</v>
       </c>
       <c r="B47" s="12" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C47" s="12" t="s">
         <v>7</v>
@@ -2589,7 +2619,7 @@
         <v>26</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G47" s="23" t="s">
         <v>9</v>
@@ -2601,25 +2631,25 @@
         <v>45316</v>
       </c>
       <c r="B48" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C48" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>123</v>
+      </c>
+      <c r="E48" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F48" s="15" t="s">
         <v>145</v>
       </c>
-      <c r="C48" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D48" s="5" t="s">
-        <v>124</v>
-      </c>
-      <c r="E48" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F48" s="15" t="s">
-        <v>146</v>
-      </c>
       <c r="G48" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H48" s="15" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="49" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -2627,25 +2657,25 @@
         <v>45317</v>
       </c>
       <c r="B49" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D49" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E49" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F49" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="C49" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D49" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E49" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F49" s="15" t="s">
-        <v>162</v>
-      </c>
       <c r="G49" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H49" s="15" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="31.2" x14ac:dyDescent="0.3">
@@ -2653,25 +2683,25 @@
         <v>45320</v>
       </c>
       <c r="B50" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C50" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D50" s="5" t="s">
+        <v>157</v>
+      </c>
+      <c r="E50" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>162</v>
+      </c>
+      <c r="G50" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H50" s="15" t="s">
         <v>159</v>
-      </c>
-      <c r="C50" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D50" s="5" t="s">
-        <v>158</v>
-      </c>
-      <c r="E50" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F50" s="15" t="s">
-        <v>163</v>
-      </c>
-      <c r="G50" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H50" s="15" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2679,25 +2709,25 @@
         <v>45321</v>
       </c>
       <c r="B51" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C51" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E51" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F51" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G51" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H51" s="15" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="52" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2705,25 +2735,25 @@
         <v>45322</v>
       </c>
       <c r="B52" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C52" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D52" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E52" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F52" s="14" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="G52" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H52" s="15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="53" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2731,25 +2761,25 @@
         <v>45323</v>
       </c>
       <c r="B53" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C53" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D53" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E53" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F53" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G53" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H53" s="15" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="54" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -2757,25 +2787,25 @@
         <v>45324</v>
       </c>
       <c r="B54" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C54" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D54" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E54" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F54" s="14" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="G54" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H54" s="15" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -2783,25 +2813,25 @@
         <v>45326</v>
       </c>
       <c r="B55" s="12" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C55" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D55" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E55" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F55" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G55" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H55" s="9" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -2809,25 +2839,25 @@
         <v>45327</v>
       </c>
       <c r="B56" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C56" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D56" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E56" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F56" s="14" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G56" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="57" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2835,25 +2865,25 @@
         <v>45328</v>
       </c>
       <c r="B57" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C57" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D57" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E57" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F57" s="14" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G57" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H57" s="14" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2861,25 +2891,25 @@
         <v>45329</v>
       </c>
       <c r="B58" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D58" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E58" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F58" s="14" t="s">
+        <v>174</v>
+      </c>
+      <c r="G58" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H58" s="9" t="s">
         <v>176</v>
-      </c>
-      <c r="C58" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D58" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E58" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F58" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="G58" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -2887,25 +2917,25 @@
         <v>45330</v>
       </c>
       <c r="B59" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D59" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E59" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F59" s="14" t="s">
         <v>180</v>
       </c>
-      <c r="C59" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D59" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E59" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F59" s="14" t="s">
+      <c r="G59" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H59" s="9" t="s">
         <v>181</v>
-      </c>
-      <c r="G59" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H59" s="9" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="60" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2913,7 +2943,7 @@
         <v>45331</v>
       </c>
       <c r="B60" s="12" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C60" s="12" t="s">
         <v>7</v>
@@ -2925,7 +2955,7 @@
         <v>26</v>
       </c>
       <c r="F60" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G60" s="23" t="s">
         <v>9</v>
@@ -2937,25 +2967,25 @@
         <v>45332</v>
       </c>
       <c r="B61" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C61" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D61" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E61" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F61" s="14" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="G61" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H61" s="15" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -2963,25 +2993,25 @@
         <v>45333</v>
       </c>
       <c r="B62" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C62" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D62" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E62" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F62" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G62" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H62" s="9" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -2989,25 +3019,25 @@
         <v>45335</v>
       </c>
       <c r="B63" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C63" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D63" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E63" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F63" s="14" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="G63" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H63" s="15" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="64" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3015,25 +3045,25 @@
         <v>45336</v>
       </c>
       <c r="B64" s="12" t="s">
+        <v>190</v>
+      </c>
+      <c r="C64" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D64" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E64" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F64" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="G64" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" s="15" t="s">
         <v>191</v>
-      </c>
-      <c r="C64" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D64" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E64" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F64" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="G64" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H64" s="15" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -3041,19 +3071,19 @@
         <v>45342</v>
       </c>
       <c r="B65" s="12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="C65" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D65" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E65" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F65" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G65" s="23" t="s">
         <v>9</v>
@@ -3065,25 +3095,25 @@
         <v>45343</v>
       </c>
       <c r="B66" s="12" t="s">
+        <v>193</v>
+      </c>
+      <c r="C66" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D66" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E66" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F66" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="G66" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H66" s="15" t="s">
         <v>194</v>
-      </c>
-      <c r="C66" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D66" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E66" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F66" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G66" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H66" s="15" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="67" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3091,25 +3121,25 @@
         <v>45344</v>
       </c>
       <c r="B67" s="12" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C67" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D67" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E67" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F67" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="G67" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H67" s="15" t="s">
         <v>197</v>
-      </c>
-      <c r="G67" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H67" s="15" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="68" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3117,7 +3147,7 @@
         <v>45345</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C68" s="12" t="s">
         <v>7</v>
@@ -3129,7 +3159,7 @@
         <v>26</v>
       </c>
       <c r="F68" s="9" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G68" s="23" t="s">
         <v>9</v>
@@ -3141,25 +3171,25 @@
         <v>45348</v>
       </c>
       <c r="B69" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="C69" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D69" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E69" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F69" s="14" t="s">
         <v>201</v>
       </c>
-      <c r="C69" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D69" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F69" s="14" t="s">
+      <c r="G69" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H69" s="14" t="s">
         <v>202</v>
-      </c>
-      <c r="G69" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H69" s="14" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="70" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3167,25 +3197,25 @@
         <v>45352</v>
       </c>
       <c r="B70" s="12" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C70" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D70" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E70" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F70" s="14" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G70" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H70" s="14" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="71" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3193,25 +3223,25 @@
         <v>45354</v>
       </c>
       <c r="B71" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D71" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E71" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F71" s="14" t="s">
         <v>206</v>
       </c>
-      <c r="C71" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D71" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E71" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F71" s="14" t="s">
-        <v>207</v>
-      </c>
       <c r="G71" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H71" s="15" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
@@ -3219,25 +3249,25 @@
         <v>45356</v>
       </c>
       <c r="B72" s="12" t="s">
+        <v>210</v>
+      </c>
+      <c r="C72" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D72" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E72" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F72" s="14" t="s">
+        <v>209</v>
+      </c>
+      <c r="G72" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H72" s="14" t="s">
         <v>211</v>
-      </c>
-      <c r="C72" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D72" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E72" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F72" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="G72" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H72" s="14" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="73" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3245,25 +3275,25 @@
         <v>45359</v>
       </c>
       <c r="B73" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C73" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D73" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E73" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F73" s="15" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G73" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H73" s="14" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="74" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3271,25 +3301,25 @@
         <v>45360</v>
       </c>
       <c r="B74" s="12" t="s">
+        <v>213</v>
+      </c>
+      <c r="C74" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D74" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="E74" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F74" s="14" t="s">
         <v>214</v>
       </c>
-      <c r="C74" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D74" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="E74" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F74" s="14" t="s">
-        <v>215</v>
-      </c>
       <c r="G74" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H74" s="15" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
@@ -3297,19 +3327,19 @@
         <v>45371</v>
       </c>
       <c r="B75" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C75" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D75" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E75" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F75" s="14" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="G75" s="23" t="s">
         <v>9</v>
@@ -3321,19 +3351,19 @@
         <v>45372</v>
       </c>
       <c r="B76" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C76" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D76" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E76" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F76" s="14" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G76" s="23" t="s">
         <v>9</v>
@@ -3345,19 +3375,19 @@
         <v>45373</v>
       </c>
       <c r="B77" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C77" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D77" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E77" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F77" s="14" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G77" s="23" t="s">
         <v>9</v>
@@ -3369,19 +3399,19 @@
         <v>45374</v>
       </c>
       <c r="B78" s="12" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="C78" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D78" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E78" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F78" s="14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="G78" s="23" t="s">
         <v>9</v>
@@ -3393,19 +3423,19 @@
         <v>45375</v>
       </c>
       <c r="B79" s="12" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="C79" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D79" s="12" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="E79" s="12" t="s">
         <v>8</v>
       </c>
       <c r="F79" s="19" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="G79" s="23" t="s">
         <v>9</v>
@@ -3417,25 +3447,25 @@
         <v>45376</v>
       </c>
       <c r="B80" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="C80" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D80" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E80" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F80" s="15" t="s">
         <v>228</v>
       </c>
-      <c r="C80" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="D80" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="E80" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F80" s="15" t="s">
+      <c r="G80" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H80" s="15" t="s">
         <v>229</v>
-      </c>
-      <c r="G80" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="H80" s="15" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="81" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3443,25 +3473,25 @@
         <v>45378</v>
       </c>
       <c r="B81" s="12" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C81" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="D81" s="28" t="s">
+      <c r="D81" s="17" t="s">
         <v>17</v>
       </c>
       <c r="E81" s="17" t="s">
         <v>26</v>
       </c>
       <c r="F81" s="15" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G81" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H81" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="82" spans="1:8" ht="57.6" x14ac:dyDescent="0.3">
@@ -3469,35 +3499,37 @@
         <v>45382</v>
       </c>
       <c r="B82" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C82" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D82" s="28" t="s">
-        <v>124</v>
+      <c r="D82" s="17" t="s">
+        <v>123</v>
       </c>
       <c r="E82" s="17" t="s">
         <v>8</v>
       </c>
       <c r="F82" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G82" s="23" t="s">
         <v>9</v>
       </c>
       <c r="H82" s="15"/>
     </row>
-    <row r="83" spans="1:8" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A83" s="16">
         <v>45383</v>
       </c>
-      <c r="B83" s="12"/>
+      <c r="B83" s="12" t="s">
+        <v>106</v>
+      </c>
       <c r="C83" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D83" s="28" t="s">
-        <v>147</v>
+      <c r="D83" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="E83" s="12" t="s">
         <v>8</v>
@@ -3506,47 +3538,179 @@
         <v>234</v>
       </c>
       <c r="G83" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H83" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="H83" s="15" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="16">
-        <v>45379</v>
-      </c>
-      <c r="B84" s="12"/>
+        <v>45385</v>
+      </c>
+      <c r="B84" s="12" t="s">
+        <v>238</v>
+      </c>
       <c r="C84" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="D84" s="28" t="s">
-        <v>147</v>
+      <c r="D84" s="17" t="s">
+        <v>146</v>
       </c>
       <c r="E84" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F84" s="15"/>
+      <c r="F84" s="15" t="s">
+        <v>236</v>
+      </c>
       <c r="G84" s="23" t="s">
-        <v>63</v>
-      </c>
-      <c r="H84" s="15"/>
+        <v>9</v>
+      </c>
+      <c r="H84" s="15" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H85" s="10"/>
+      <c r="A85" s="16">
+        <v>45386</v>
+      </c>
+      <c r="B85" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="C85" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D85" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E85" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F85" s="15" t="s">
+        <v>239</v>
+      </c>
+      <c r="G85" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H85" s="15"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H86" s="10"/>
+      <c r="A86" s="16">
+        <v>45387</v>
+      </c>
+      <c r="B86" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D86" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E86" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F86" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G86" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H86" s="15"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H87" s="10"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H88" s="10"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H89" s="10"/>
+      <c r="A87" s="16">
+        <v>45388</v>
+      </c>
+      <c r="B87" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D87" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E87" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F87" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="G87" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H87" s="15"/>
+    </row>
+    <row r="88" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A88" s="16">
+        <v>45391</v>
+      </c>
+      <c r="B88" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D88" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E88" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F88" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G88" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H88" s="9"/>
+    </row>
+    <row r="89" spans="1:8" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A89" s="16">
+        <v>45392</v>
+      </c>
+      <c r="B89" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D89" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E89" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F89" s="28" t="s">
+        <v>243</v>
+      </c>
+      <c r="G89" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H89" s="9"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="H90" s="10"/>
+      <c r="A90" s="16">
+        <v>45393</v>
+      </c>
+      <c r="B90" s="12"/>
+      <c r="C90" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D90" s="17" t="s">
+        <v>146</v>
+      </c>
+      <c r="E90" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="F90" s="28" t="s">
+        <v>244</v>
+      </c>
+      <c r="G90" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="H90" s="9"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="H91" s="10"/>
@@ -3691,6 +3855,12 @@
     </row>
     <row r="138" spans="8:8" x14ac:dyDescent="0.3">
       <c r="H138" s="10"/>
+    </row>
+    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H139" s="10"/>
+    </row>
+    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H140" s="10"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3" type="noConversion"/>
